--- a/Resultados/field_36ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/Resultados/field_36ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://xmobotsaeroespacial-my.sharepoint.com/personal/paulo_acorinte_xmobots_com_br/Documents/Área de Trabalho/Repositorios/simulador/Resultados/field_36ha_100ha_6%_12m_0_LM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="279" documentId="11_21B33ABBC4CBCB7CEDB1576458D425BB153F23C0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10115257-6591-4ECA-8E59-AB41BDF7DCD8}"/>
+  <xr:revisionPtr revIDLastSave="280" documentId="11_21B33ABBC4CBCB7CEDB1576458D425BB153F23C0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{173E153C-D36B-47C9-8990-F2427C73EF7C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="70">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>Resultado 28</t>
+  </si>
+  <si>
+    <t>field_36ha_100ha_6%_12m_0_LM\</t>
   </si>
 </sst>
 </file>
@@ -10763,13 +10766,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{294566D4-76BF-42C6-A15B-ABD31F5896E4}">
   <sheetPr codeName="Planilha33"/>
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>33</v>
       </c>
@@ -10797,8 +10800,11 @@
       <c r="J1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -10838,7 +10844,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -10869,7 +10875,7 @@
         <v>2.5554600000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -10900,7 +10906,7 @@
         <v>2.7047879999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -10931,7 +10937,7 @@
         <v>2.8015559999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -10962,7 +10968,7 @@
         <v>2.8523160000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -10993,7 +10999,7 @@
         <v>2.8971359999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -11024,7 +11030,7 @@
         <v>2.9198879999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -11055,7 +11061,7 @@
         <v>2.9410920000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -11086,7 +11092,7 @@
         <v>2.9647800000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -11117,7 +11123,7 @@
         <v>2.9872079999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -11148,7 +11154,7 @@
         <v>2.9597039999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -11179,7 +11185,7 @@
         <v>2.9704320000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -11210,7 +11216,7 @@
         <v>2.9743920000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -11241,7 +11247,7 @@
         <v>2.9749319999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>54</v>
       </c>
